--- a/docker_study/docker_study_20221001.xlsx
+++ b/docker_study/docker_study_20221001.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/docker_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F52790-D608-AF4A-B962-195120D28289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F65318-F0AE-4946-9FDF-C4A395744C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1680" windowWidth="22720" windowHeight="14900" activeTab="3" xr2:uid="{C687A677-CF08-0445-88F7-AF9EBC314419}"/>
+    <workbookView xWindow="5460" yWindow="1780" windowWidth="23240" windowHeight="14900" activeTab="4" xr2:uid="{C687A677-CF08-0445-88F7-AF9EBC314419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="docker youtube" sheetId="3" r:id="rId2"/>
     <sheet name="docker laravel" sheetId="4" r:id="rId3"/>
     <sheet name="復習" sheetId="5" r:id="rId4"/>
+    <sheet name="udemy" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="718">
   <si>
     <t>toyohide@toyohidenoMacBook-Pro 001 % </t>
   </si>
@@ -8136,12 +8137,461 @@
       <t>DONE</t>
     </r>
   </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro ~ % cd /Users/toyohide/Desktop/hideyuki/MY_STUDY/docker_study/20221005/002 </t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % </t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker run -it --name mycentos centos:8 /bin/bash</t>
+  </si>
+  <si>
+    <t>Unable to find image 'centos:8' locally</t>
+  </si>
+  <si>
+    <t>docker.io/library/centos@sha256:a27fd8080b517143cbbbab9dfb7c8571c40d67d534bbdee55bd6c473f432b177: Pulling from library/centos</t>
+  </si>
+  <si>
+    <t>52f9ef134af7: Pull complete </t>
+  </si>
+  <si>
+    <t>Digest: sha256:a27fd8080b517143cbbbab9dfb7c8571c40d67d534bbdee55bd6c473f432b177</t>
+  </si>
+  <si>
+    <t>Status: Downloaded newer image for centos@sha256:a27fd8080b517143cbbbab9dfb7c8571c40d67d534bbdee55bd6c473f432b177</t>
+  </si>
+  <si>
+    <t>Tagging centos@sha256:a27fd8080b517143cbbbab9dfb7c8571c40d67d534bbdee55bd6c473f432b177 as centos:8</t>
+  </si>
+  <si>
+    <t>[root@63635e02f55d /]# </t>
+  </si>
+  <si>
+    <t>[root@63635e02f55d /]# exit</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker ps -a</t>
+  </si>
+  <si>
+    <t>CONTAINER ID   IMAGE                  COMMAND                  CREATED         STATUS                     PORTS                              NAMES</t>
+  </si>
+  <si>
+    <t>63635e02f55d   centos                 "/bin/bash"              2 minutes ago   Exited (0) 9 seconds ago                                      mycentos</t>
+  </si>
+  <si>
+    <t>3f8dc1d73b03   bitnami/laravel:9      "/opt/bitnami/script…"   11 hours ago    Up 11 hours                3000/tcp, 0.0.0.0:8000-&gt;8000/tcp   001-myapp-1</t>
+  </si>
+  <si>
+    <t>8f7e657e5304   bitnami/mariadb:10.6   "/opt/bitnami/script…"   11 hours ago    Up 11 hours                3306/tcp                           001-mariadb-1</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker start mycentos</t>
+  </si>
+  <si>
+    <t>mycentos</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker ps</t>
+  </si>
+  <si>
+    <t>CONTAINER ID   IMAGE                  COMMAND                  CREATED         STATUS         PORTS                              NAMES</t>
+  </si>
+  <si>
+    <t>63635e02f55d   centos                 "/bin/bash"              5 minutes ago   Up 4 seconds                                      mycentos</t>
+  </si>
+  <si>
+    <t>3f8dc1d73b03   bitnami/laravel:9      "/opt/bitnami/script…"   11 hours ago    Up 11 hours    3000/tcp, 0.0.0.0:8000-&gt;8000/tcp   001-myapp-1</t>
+  </si>
+  <si>
+    <t>8f7e657e5304   bitnami/mariadb:10.6   "/opt/bitnami/script…"   11 hours ago    Up 11 hours    3306/tcp                           001-mariadb-1</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker stop mycentos</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker ps            </t>
+  </si>
+  <si>
+    <t>CONTAINER ID   IMAGE                  COMMAND                  CREATED        STATUS        PORTS                              NAMES</t>
+  </si>
+  <si>
+    <t>3f8dc1d73b03   bitnami/laravel:9      "/opt/bitnami/script…"   11 hours ago   Up 11 hours   3000/tcp, 0.0.0.0:8000-&gt;8000/tcp   001-myapp-1</t>
+  </si>
+  <si>
+    <t>8f7e657e5304   bitnami/mariadb:10.6   "/opt/bitnami/script…"   11 hours ago   Up 11 hours   3306/tcp                           001-mariadb-1</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker exec -it mycentos /bin/bash</t>
+  </si>
+  <si>
+    <t>Error response from daemon: Container 63635e02f55d2242a3f32ae03862bfd701158a34ab380f218d819c1f474ab31e is not running</t>
+  </si>
+  <si>
+    <t>docker: Error response from daemon: Conflict. The container name "/mycentos" is already in use by container "63635e02f55d2242a3f32ae03862bfd701158a34ab380f218d819c1f474ab31e". You have to remove (or rename) that container to be able to reuse that name.</t>
+  </si>
+  <si>
+    <t>See 'docker run --help'.</t>
+  </si>
+  <si>
+    <t>起動していない状態でexecするとエラー</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>runするときに名前が重複していたらエラー</t>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execの前にstartで起動させる必要がある</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker exec mycentos cat /etc/redhat-release</t>
+  </si>
+  <si>
+    <t>CentOS Linux release 8.4.2105</t>
+  </si>
+  <si>
+    <t>中に入らずに、コンテナ内のコマンドを実行する</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/10/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % cat Dockerfile </t>
+  </si>
+  <si>
+    <t>FROM ubuntu:20.04</t>
+  </si>
+  <si>
+    <t>RUN apt-get update -y &amp;&amp; \</t>
+  </si>
+  <si>
+    <t>    apt-get install -y nginx</t>
+  </si>
+  <si>
+    <t>CMD [ "nginx", "-g", "daemon off;" ]</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % docker build -t dockerfile-run-nginx .</t>
+  </si>
+  <si>
+    <t>[+] Building 20.0s (7/7) FINISHED                                                                             </t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load build definition from Dockerfile                                                     0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; transferring dockerfile: 153B                                                                     0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load .dockerignore                                                                        0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; transferring context: 2B                                                                          0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load metadata for docker.io/library/ubuntu:20.04                                          3.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [auth] library/ubuntu:pull token for registry-1.docker.io                                            0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [1/2] FROM docker.io/library/ubuntu:20.04@sha256:9c2004872a3a9fcec8cc757ad65c042de1dad4da27de4c7073  2.6s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; resolve docker.io/library/ubuntu:20.04@sha256:9c2004872a3a9fcec8cc757ad65c042de1dad4da27de4c7073  0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:9c2004872a3a9fcec8cc757ad65c042de1dad4da27de4c70739a6e36402213e3 1.42kB / 1.42kB           0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:9488eba63bece0e05cd2cd84ce4dbe2710c8666f10259bbb9ebe55c4ff4f5704 529B / 529B               0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:f12f227aa3fdd90f0418130698b75f1eeb68f885f0760866a7801fa3877df26a 1.48kB / 1.48kB           0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:514fa78e57ce0d9437bc984cc36ab780c24b69da2b922bfff16737072e3e7de2 27.19MB / 27.19MB         1.8s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; extracting sha256:514fa78e57ce0d9437bc984cc36ab780c24b69da2b922bfff16737072e3e7de2                0.7s</t>
+  </si>
+  <si>
+    <t> =&gt; [2/2] RUN apt-get update -y &amp;&amp;     apt-get install -y nginx                                         14.2s</t>
+  </si>
+  <si>
+    <t> =&gt; exporting to image                                                                                   0.2s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; exporting layers                                                                                  0.2s</t>
+  </si>
+  <si>
+    <r>
+      <t> =&gt; =&gt; writing image sha256:54f1d056dba1053e5882f2dfd305d5595023ed8302e7ac856c3750f18d12b934             0.0s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> =&gt; =&gt; naming to docker.io/library/dockerfile-run-nginx                                                  0.0s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>                                                                                                              </t>
+  </si>
+  <si>
+    <t>Use 'docker scan' to run Snyk tests against images to find vulnerabilities and learn how to fix them          </t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % pwd</t>
+  </si>
+  <si>
+    <t>/Users/toyohide/Desktop/hideyuki/MY_STUDY/docker_study/20221007/001</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % docker images</t>
+  </si>
+  <si>
+    <t>REPOSITORY             TAG       IMAGE ID       CREATED         SIZE</t>
+  </si>
+  <si>
+    <t>dockerfile-run-nginx   latest    54f1d056dba1   3 minutes ago   153MB</t>
+  </si>
+  <si>
+    <t>bitnami/mariadb        10.6      3961db0be76b   2 days ago      342MB</t>
+  </si>
+  <si>
+    <t>bitnami/laravel        9         9106d2676be8   3 days ago      584MB</t>
+  </si>
+  <si>
+    <t>centos                 8         e6a0117ec169   12 months ago   272MB</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % docker run -d -p 8081:80 --name dockerfile-run-nginx dockerfile-run-nginx</t>
+  </si>
+  <si>
+    <t>docker: you are not authorized to perform this operation: server returned 401.</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % export DOCKER_CONTENT_TRUST=0</t>
+  </si>
+  <si>
+    <t>28688ddbe98b9a5e140a7d949fbb6ad8560462c6c6aafe426704f38f61bceff2</t>
+  </si>
+  <si>
+    <t>上記のコマンドでは起動できなかったので、このコマンドを実行した</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % cat index.html                                                           </t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;toyohide&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>COPY index.html /var/www/html</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % docker build -t dockerfile-copy-nginx .                                  </t>
+  </si>
+  <si>
+    <t>[+] Building 2.3s (9/9) FINISHED                                                                                                                                    </t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load build definition from Dockerfile                                                                                                           0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; transferring dockerfile: 185B                                                                                                                           0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load .dockerignore                                                                                                                              0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; transferring context: 2B                                                                                                                                0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load metadata for docker.io/library/ubuntu:20.04                                                                                                2.2s</t>
+  </si>
+  <si>
+    <t> =&gt; [auth] library/ubuntu:pull token for registry-1.docker.io                                                                                                  0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load build context                                                                                                                              0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; transferring context: 55B                                                                                                                               0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [1/3] FROM docker.io/library/ubuntu:20.04@sha256:9c2004872a3a9fcec8cc757ad65c042de1dad4da27de4c70739a6e36402213e3                                          0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; CACHED [2/3] RUN apt-get update -y &amp;&amp;     apt-get install -y nginx                                                                                         0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [3/3] COPY index.html /var/www/html                                                                                                                        0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; exporting to image                                                                                                                                         0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; exporting layers                                                                                                                                        0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; writing image sha256:8a74042ad011b39118375f2bd19b2637fcce107bb984bd8557dcd548c6334c99                                                                   0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; naming to docker.io/library/dockerfile-copy-nginx                                                                                                       0.0s</t>
+  </si>
+  <si>
+    <t>Use 'docker scan' to run Snyk tests against images to find vulnerabilities and learn how to fix them</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 001 % docker run -d -p 8081:80 --name dockerfile-copy-nginx dockerfile-copy-nginx</t>
+  </si>
+  <si>
+    <t>5fac068b6ae41d6e22f329293c367374212fafe7f66091542fdedc82eeb92fd3</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % cat Dockerfile </t>
+  </si>
+  <si>
+    <t>FROM mariadb:10.4</t>
+  </si>
+  <si>
+    <t>RUN apt-get update -y</t>
+  </si>
+  <si>
+    <t>COPY my.conf /etc/mysql/conf.d</t>
+  </si>
+  <si>
+    <t>COPY create-table.sql /docker-entrypoint-initdb.d</t>
+  </si>
+  <si>
+    <t>ENV MYSQL_USER=root</t>
+  </si>
+  <si>
+    <t>ENV MYSQL_DATABASE=docker</t>
+  </si>
+  <si>
+    <t>ENV MYSQL_ROOT_PASSWORD=root</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro 002 % docker build -t mymariadb .    </t>
+  </si>
+  <si>
+    <t>[+] Building 3.1s (9/9) FINISHED                                                                                                                                    </t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; transferring dockerfile: 240B                                                                                                                           0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [internal] load metadata for docker.io/library/mariadb:10.4                                                                                                3.0s</t>
+  </si>
+  <si>
+    <t> =&gt; [auth] library/mariadb:pull token for registry-1.docker.io                                                                                                 0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; CANCELED [1/4] FROM docker.io/library/mariadb:10.4@sha256:0f65f8029d1236f78a70800d86105d4c68c33a560e981b8adc18d4a1ceb7e1fd                                 0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; resolve docker.io/library/mariadb:10.4@sha256:0f65f8029d1236f78a70800d86105d4c68c33a560e981b8adc18d4a1ceb7e1fd                                          0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:0f65f8029d1236f78a70800d86105d4c68c33a560e981b8adc18d4a1ceb7e1fd 765B / 765B                                                                     0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:d1f39cb90639884f8feb48e467c3015c1a4a81a2e6c9802da4308ff8c2ae67e6 8.63kB / 8.63kB                                                                 0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; =&gt; sha256:274550205401d3186c969b9d8bf741f1ff3b60cdf7ffb85eadb96b648a2a5bbd 2.83kB / 2.83kB                                                                 0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; CACHED [2/4] RUN apt-get update -y                                                                                                                         0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; ERROR [3/4] COPY my.conf /etc/mysql/conf.d                                                                                                                 0.0s</t>
+  </si>
+  <si>
+    <t> =&gt; ERROR [4/4] COPY create-table.sql /docker-entrypoint-initdb.d                                                                                              0.0s</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t> &gt; [3/4] COPY my.conf /etc/mysql/conf.d:</t>
+  </si>
+  <si>
+    <t> &gt; [4/4] COPY create-table.sql /docker-entrypoint-initdb.d:</t>
+  </si>
+  <si>
+    <t>failed to compute cache key: "/create-table.sql" not found: not found</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8261,6 +8711,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB42419"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8373,7 +8829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8440,13 +8896,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9010,6 +9472,275 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>8903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD28397-7F14-544D-8301-C15C2088676D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="37363400"/>
+          <a:ext cx="7772400" cy="770903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>107483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644D12C8-B941-ABEF-5AE8-67ED49A034B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="40411400"/>
+          <a:ext cx="7772400" cy="4171483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>201160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95445A1-DC1E-1D5B-48C7-C29994CEC752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="46507400"/>
+          <a:ext cx="7772400" cy="709160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>198581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECB60FE-C802-80E8-E0C6-EAC173038FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="55397400"/>
+          <a:ext cx="7772400" cy="706581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777E5143-B6FD-D039-01FD-AFF74A7926F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="58445400"/>
+          <a:ext cx="5638800" cy="2044700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>198581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA97046-4DB7-33B4-3925-2912EBBC5B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="60985400"/>
+          <a:ext cx="7772400" cy="706581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -11212,11 +11943,11 @@
   </sheetPr>
   <dimension ref="A6:X531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B521" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G540" sqref="G540"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
@@ -11390,378 +12121,136 @@
     </row>
     <row r="30" spans="3:15">
       <c r="C30" s="12"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="3:15">
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
       <c r="O34" s="14"/>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
       <c r="O37" s="14"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
       <c r="O38" s="14"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
       <c r="O39" s="14"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
       <c r="O40" s="14"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
       <c r="O41" s="14"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
       <c r="O45" s="14"/>
     </row>
     <row r="46" spans="3:15">
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
       <c r="O46" s="14"/>
     </row>
     <row r="47" spans="3:15">
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
       <c r="O47" s="14"/>
     </row>
     <row r="48" spans="3:15">
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
       <c r="O48" s="14"/>
     </row>
     <row r="49" spans="3:15">
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
       <c r="O51" s="14"/>
     </row>
     <row r="52" spans="3:15" ht="21" thickBot="1">
-      <c r="C52" s="24"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
@@ -13896,4 +14385,1301 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FD59A5-390F-CD4D-92B2-A6B55A4D4E17}">
+  <dimension ref="A6:Y296"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C250" sqref="C250"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:19">
+      <c r="C6" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="C19" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="C23" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="C24" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="C25" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="C26" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="C27" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:23">
+      <c r="C33" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="3:23">
+      <c r="C34" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:23">
+      <c r="C36" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23">
+      <c r="C37" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23">
+      <c r="C38" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="3:23">
+      <c r="C39" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23">
+      <c r="C40" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:23">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="3:23">
+      <c r="C43" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="3:23">
+      <c r="C44" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="3:23">
+      <c r="C46" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="3:23">
+      <c r="C47" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23">
+      <c r="C48" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="C49" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="C55" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="C56" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="C57" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="C58" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="C60" s="2"/>
+      <c r="H60" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="C61" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="C62" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="C67" s="2"/>
+      <c r="K67" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="C68" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="C69" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="C70" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="C76" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="C77" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="C78" s="2"/>
+      <c r="I78" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="C79" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="C81" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="C82" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="I87" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="C88" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="C89" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" s="4" customFormat="1">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="C94" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="C95" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="21" thickBot="1">
+      <c r="C101" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10">
+      <c r="C102" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="3:10">
+      <c r="C103" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="3:10">
+      <c r="C104" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="14"/>
+    </row>
+    <row r="105" spans="3:10" ht="21" thickBot="1">
+      <c r="C105" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="3:10">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="3:10">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="3:10">
+      <c r="C108" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10">
+      <c r="C109" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10">
+      <c r="C110" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10">
+      <c r="C111" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10">
+      <c r="C112" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14">
+      <c r="C129" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="3:14">
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="3:14">
+      <c r="C132" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14">
+      <c r="C133" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14">
+      <c r="C134" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="3:14">
+      <c r="C135" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="136" spans="3:14">
+      <c r="C136" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="137" spans="3:14">
+      <c r="C137" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="138" spans="3:14">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="3:14">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="3:14">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="3:14">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="3:14">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="3:14">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="3:14">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:20">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="148" spans="1:20">
+      <c r="C148" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="1:20">
+      <c r="C149" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
+      <c r="C150" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:20">
+      <c r="C152" s="2"/>
+      <c r="H152" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
+      <c r="C153" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+    </row>
+    <row r="154" spans="1:20">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:20">
+      <c r="C156" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="1:20">
+      <c r="C157" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="2"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="C186" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="C187" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="C190" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="C191" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="C192" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="193" spans="3:15">
+      <c r="C193" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="194" spans="3:15">
+      <c r="C194" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="3:15">
+      <c r="C195" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="196" spans="3:15">
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="3:15">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="3:15">
+      <c r="C198" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+    </row>
+    <row r="199" spans="3:15">
+      <c r="C199" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="200" spans="3:15">
+      <c r="C200" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="201" spans="3:15">
+      <c r="C201" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="202" spans="3:15">
+      <c r="C202" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="203" spans="3:15">
+      <c r="C203" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="204" spans="3:15">
+      <c r="C204" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="205" spans="3:15">
+      <c r="C205" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="206" spans="3:15">
+      <c r="C206" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="207" spans="3:15">
+      <c r="C207" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="208" spans="3:15">
+      <c r="C208" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="209" spans="3:20">
+      <c r="C209" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="210" spans="3:20">
+      <c r="C210" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="211" spans="3:20">
+      <c r="C211" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="212" spans="3:20">
+      <c r="C212" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="213" spans="3:20">
+      <c r="C213" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="214" spans="3:20">
+      <c r="C214" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="216" spans="3:20">
+      <c r="C216" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="217" spans="3:20">
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="3:20">
+      <c r="C218" s="2"/>
+    </row>
+    <row r="224" spans="3:20">
+      <c r="C224" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="2"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="C254" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="C255" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="C256" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" s="26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>